--- a/InputFiles/TC27_Canine_StudyUBC-AllBreeds_StageOfDisease.xlsx
+++ b/InputFiles/TC27_Canine_StudyUBC-AllBreeds_StageOfDisease.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\inputfiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\updated code\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976234E5-83CD-4ACF-B607-6C04D88F9DE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F68FF89-C2A6-49AA-B878-E2306C0AC58D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -75,26 +75,6 @@
         coalesce(samp.sample_preservation, '') AS `Sample Preservation`</t>
   </si>
   <si>
-    <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
-MATCH (c)&lt;--(diag:diagnosis)
- MATCH (p:program)&lt;-[*]-(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis)
-	WHERE s.clinical_study_designation IN ['UBC01'] and diag.stage_of_disease in [ 'T3N0M1', 'Not Applicable']  OPTIONAL MATCH (samp:sample)--&gt;(c)
-OPTIONAL MATCH (co:cohort)&lt;-[*]-(c)
-WITH DISTINCT c, s, demo, diag, co
-RETURN  coalesce(c.case_id, '') AS `Case ID` ,
-        coalesce(s.clinical_study_designation, '') AS `Study Code` ,
-        coalesce(s.clinical_study_type, '') AS  `Study Type`,
-        coalesce(demo.breed, '') AS Breed ,
-        coalesce(diag.disease_term, '') AS Diagnosis ,
-        coalesce(diag.stage_of_disease, '') AS `Stage of Disease` ,
-        coalesce(demo.patient_age_at_enrollment, '') AS Age ,
-        coalesce(demo.sex, '') AS Sex ,
-        coalesce(demo.neutered_indicator, '') AS `Neutered Status`,
-        coalesce(demo.weight, '') AS `Weight (kg)`,
-        coalesce(diag.best_response, '') AS `Response to Treatment`,
-        coalesce(co.cohort_description, '') AS `Cohort`</t>
-  </si>
-  <si>
     <t>MATCH (s:study)
   MATCH (demo:demographic) 
   MATCH (diag:diagnosis)
@@ -132,6 +112,25 @@
         coalesce(demo.breed,'') AS Breed , 
         coalesce(diag.disease_term,'') AS Diagnosis , 
         coalesce(s.clinical_study_designation,'') AS `Study Code`</t>
+  </si>
+  <si>
+    <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
+MATCH (c)&lt;--(diag:diagnosis)
+ MATCH (p:program)&lt;-[*]-(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis)
+	WHERE s.clinical_study_designation IN ['UBC01'] and diag.stage_of_disease in [ 'T3N0M1', 'Not Applicable']  OPTIONAL MATCH (samp:sample)--&gt;(c)
+OPTIONAL MATCH (co:cohort)&lt;-[*]-(c)
+WITH DISTINCT c, s, demo, diag, co
+RETURN  coalesce(c.case_id, '') AS `Case ID` ,
+        coalesce(s.clinical_study_designation, '') AS `Study Code` ,
+        coalesce(s.clinical_study_type, '') AS  `Study Type`,
+        coalesce(demo.breed, '') AS Breed ,
+        coalesce(diag.disease_term, '') AS Diagnosis ,
+        coalesce(diag.stage_of_disease, '') AS `Stage of Disease` ,
+        coalesce(demo.patient_age_at_enrollment, '') AS Age ,
+        coalesce(demo.sex, '') AS Sex ,
+        coalesce(demo.neutered_indicator, '') AS `Neutered Status`,
+        coalesce(demo.weight, '') AS `Weight (kg)`,
+        coalesce(diag.best_response, '') AS `Response to Treatment`</t>
   </si>
 </sst>
 </file>
@@ -503,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:E4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -532,21 +531,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="290" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="290" x14ac:dyDescent="0.35">
@@ -557,13 +556,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="290" x14ac:dyDescent="0.35">
@@ -571,16 +570,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">

--- a/InputFiles/TC27_Canine_StudyUBC-AllBreeds_StageOfDisease.xlsx
+++ b/InputFiles/TC27_Canine_StudyUBC-AllBreeds_StageOfDisease.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\updated code\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F68FF89-C2A6-49AA-B878-E2306C0AC58D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39017D4-4012-48F5-A159-A0D1FDE19192}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
   <si>
     <t>WebExcel</t>
   </si>
@@ -73,20 +73,6 @@
         coalesce(samp.percentage_tumor, '') AS `Percentage Tumor`,
         coalesce(samp.necropsy_sample, '') AS `Necropsy Sample`,
         coalesce(samp.sample_preservation, '') AS `Sample Preservation`</t>
-  </si>
-  <si>
-    <t>MATCH (s:study)
-  MATCH (demo:demographic) 
-  MATCH (diag:diagnosis)
- MATCH (p:program)&lt;-[*]-(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis)
-	WHERE s.clinical_study_designation IN ['UBC01'] and diag.stage_of_disease in [ 'T3N0M1', 'Not Applicable'] 
-OPTIONAL MATCH (s)&lt;-[:member_of]-(c:case)
-OPTIONAL MATCH (c)&lt;-[:of_case]-(samp:sample)&lt;-[:of_sample]-(f:file)
-RETURN 
-	count(DISTINCT(f)) as number_of_files , 
-	count(DISTINCT(samp)) as number_of_sample , 
-	count(DISTINCT(c.case_id)) as number_of_cases , 
-	count(DISTINCT(s.clinical_study_designation)) as number_of_study</t>
   </si>
   <si>
     <t>TC27_Canine_StudyUBC-AllBreeds_StageOfDisease_Neo4jData.xlsx</t>
@@ -131,6 +117,186 @@
         coalesce(demo.neutered_indicator, '') AS `Neutered Status`,
         coalesce(demo.weight, '') AS `Weight (kg)`,
         coalesce(diag.best_response, '') AS `Response to Treatment`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATCH (p:program)&lt;--(s:study)&lt;--(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis)
+      WHERE (size([]) = 0 OR s.clinical_study_designation IN [])
+        AND (s.study_disposition = 'Unrestricted')
+        AND s.clinical_study_designation IN ['UBC01']
+  and diag.stage_of_disease in [ 'T3N0M1', 'Not Applicable'] 
+        AND (size([]) = 0 OR demo.sex IN [])
+        AND (size([]) = 0 OR demo.neutered_indicator IN [])
+        AND (size([]) = 0 OR diag.disease_term IN [])
+        AND (size([]) = 0 OR diag.primary_disease_site IN [])
+        AND (size([]) = 0 OR diag.stage_of_disease IN [])
+        AND (size([]) = 0 OR diag.best_response IN [])
+    OPTIONAL MATCH (c)--&gt;(co:cohort)
+    OPTIONAL MATCH (f:file)-[*]-&gt;(c)
+    OPTIONAL MATCH (f)--&gt;(parent)
+    OPTIONAL MATCH (samp:sample)--&gt;(c)
+    OPTIONAL MATCH (samp)&lt;--(al:aliquot)
+    WITH DISTINCT c AS c, p, s, co, demo, diag, f, parent, samp, al
+      WHERE (size([]) = 0 OR samp.summarized_sample_type IN [])
+        AND (size([]) = 0 OR samp.specific_sample_pathology IN [])
+        AND (size([]) = 0 OR samp.sample_site IN [])
+        AND (size([]) = 0 OR head(labels(parent)) IN [])
+        AND (size([]) = 0 OR f.file_type IN [])
+        AND (size([]) = 0 OR f.file_format IN [])
+    WITH c.case_id AS case_id,
+         s.clinical_study_designation AS study_code,
+         s.clinical_study_type AS study_type,
+         co.cohort_description AS cohort,
+         demo.breed AS breed,
+         diag.disease_term AS diagnosis,
+         diag.stage_of_disease AS stage_of_disease,
+         diag.primary_disease_site AS disease_site,
+         demo.patient_age_at_enrollment AS age,
+         demo.sex AS sex,
+         demo.neutered_indicator AS neutered_status,
+         demo.weight AS weight,
+         diag.best_response AS response_to_treatment,
+         samp.sample_id AS sample_id,
+         f.uuid AS file_id,
+         al
+    RETURN
+COUNT(DISTINCT file_id) as number_of_files,
+COUNT(DISTINCT sample_id) as number_of_sample,
+COUNT(DISTINCT case_id) as number_of_cases,
+COUNT(DISTINCT study_code) as number_of_study,
+COUNT(DISTINCT al) as number_of_aliquot
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        AND (s.study_disposition = 'Unrestricted')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        AND s.clinical_study_designation IN ['UBC01']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  and diag.stage_of_disease in [ 'T3N0M1', 'Not Applicable'] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        AND (size([]) = 0 OR demo.sex IN [])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        AND (size([]) = 0 OR demo.neutered_indicator IN [])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        AND (size([]) = 0 OR diag.disease_term IN [])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        AND (size([]) = 0 OR diag.primary_disease_site IN [])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        AND (size([]) = 0 OR diag.stage_of_disease IN [])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        AND (size([]) = 0 OR diag.best_response IN [])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    OPTIONAL MATCH (c)--&gt;(co:cohort)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    OPTIONAL MATCH (f:file)-[*]-&gt;(c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    OPTIONAL MATCH (f)--&gt;(parent)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    OPTIONAL MATCH (samp:sample)--&gt;(c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    OPTIONAL MATCH (samp)&lt;--(al:aliquot)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    WITH DISTINCT c AS c, p, s, co, demo, diag, f, parent, samp, al</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      WHERE (size([]) = 0 OR samp.summarized_sample_type IN [])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        AND (size([]) = 0 OR samp.specific_sample_pathology IN [])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        AND (size([]) = 0 OR samp.sample_site IN [])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        AND (size([]) = 0 OR head(labels(parent)) IN [])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        AND (size([]) = 0 OR f.file_type IN [])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        AND (size([]) = 0 OR f.file_format IN [])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    WITH c.case_id AS case_id,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         s.clinical_study_designation AS study_code,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         s.clinical_study_type AS study_type,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         co.cohort_description AS cohort,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         demo.breed AS breed,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         diag.disease_term AS diagnosis,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         diag.stage_of_disease AS stage_of_disease,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         diag.primary_disease_site AS disease_site,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         demo.patient_age_at_enrollment AS age,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         demo.sex AS sex,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         demo.neutered_indicator AS neutered_status,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         demo.weight AS weight,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         diag.best_response AS response_to_treatment,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         samp.sample_id AS sample_id,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         f.uuid AS file_id,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         al</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    RETURN</t>
+  </si>
+  <si>
+    <t>COUNT(DISTINCT file_id) as number_of_files,</t>
+  </si>
+  <si>
+    <t>COUNT(DISTINCT sample_id) as number_of_sample,</t>
+  </si>
+  <si>
+    <t>COUNT(DISTINCT case_id) as number_of_cases,</t>
+  </si>
+  <si>
+    <t>COUNT(DISTINCT study_code) as number_of_study,</t>
+  </si>
+  <si>
+    <t>COUNT(DISTINCT al) as number_of_aliquot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
   </si>
 </sst>
 </file>
@@ -500,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -531,24 +697,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="290" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="290" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -556,34 +722,251 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="290" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
-        <v>11</v>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C48" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
